--- a/biology/Zoologie/Hypothyris_lycaste/Hypothyris_lycaste.xlsx
+++ b/biology/Zoologie/Hypothyris_lycaste/Hypothyris_lycaste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypothyris lycaste est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Hypothyris.
 </t>
@@ -511,11 +523,48 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypothyris lycaste a été décrit par Johan Christian Fabricius en 1793 sous le nom initial de Papilio lycaste[1].
-Sous-espèces
-Hypothyris lycaste lycaste; présent à Panama et en Colombie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypothyris lycaste a été décrit par Johan Christian Fabricius en 1793 sous le nom initial de Papilio lycaste.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hypothyris_lycaste</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypothyris_lycaste</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hypothyris lycaste lycaste; présent à Panama et en Colombie.
 Hypothyris lycaste antonia (Hewitson, 1869); présent en Équateur.
 Hypothyris lycaste callispila (Bates, 1866); présent au Costa Rica et à Panama.
 Hypothyris lycaste dionaea (Hewitson, 1854); présent au Mexique et au Guatemala.
@@ -524,38 +573,74 @@
 Hypothyris lycaste limosa Fox, 1971; présent en Colombie
 Hypothyris lycaste limpida (Haensch, 1905); présent en Colombie
 Hypothyris lycaste mergelena (Hewitson, 1855); présent en Colombie
-Hypothyris lycaste ssp; présent à Panama[1].
-Nom vernaculaire
-Hypothyris lycaste se nomme Lycaste Tigerwing en anglais[2].
+Hypothyris lycaste ssp; présent à Panama.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hypothyris_lycaste</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypothyris_lycaste</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypothyris lycaste se nomme Lycaste Tigerwing en anglais.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Hypothyris_lycaste</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hypothyris_lycaste</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypothyris lycaste est un papillon à corps fin, aux ailes à apex arrondi et aux ailes antérieures à bord interne concave. Les ailes antérieures sont à base orange et reste de l'aile marron orné de plis ou moins grosses et plus ou moins nombreuses taches crème et d'une ligne submarginale de petites taches blanches.  Les ailes postérieures sont orange avec soirt une barre marron, soit une plage marron à l'apex et une ligne submarginale de points blancs.
 Le revers est semblable.
@@ -563,68 +648,109 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Hypothyris_lycaste</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hypothyris_lycaste</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-La plante hôtes de la chenille d' Hypothyris lycaste callispila est Solanum torvum[1].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôtes de la chenille d' Hypothyris lycaste callispila est Solanum torvum.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Hypothyris_lycaste</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hypothyris_lycaste</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hypothyris lycaste est présent au Mexique, au Costa Rica, au Guatemala, à Panama, en Colombie, en Équateur et au Venezuela[1].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypothyris lycaste est présent au Mexique, au Costa Rica, au Guatemala, à Panama, en Colombie, en Équateur et au Venezuela.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hypothyris_lycaste</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypothyris_lycaste</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Hypothyris lycaste, sur Wikimedia CommonsHypothyris lycaste, sur Wikispecies
 </t>
